--- a/materials/reading-ranger/stimuli/passage-error-excels/set-9b/cupcakes_9g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-9b/cupcakes_9g.xlsx
@@ -520,193 +520,193 @@
     <t xml:space="preserve">dies</t>
   </si>
   <si>
-    <t xml:space="preserve">int</t>
+    <t xml:space="preserve">tri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ple:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ther</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va</t>
   </si>
   <si>
     <t xml:space="preserve">ri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ple:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ther</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ble.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">va</t>
   </si>
   <si>
     <t xml:space="preserve">mo</t>
@@ -1220,7 +1220,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1306,8 +1306,6 @@
         <u val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1321,7 +1319,6 @@
           <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1335,7 +1332,6 @@
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2730,43 +2726,43 @@
         <v>11</v>
       </c>
       <c r="X2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AD2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE2" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="AG2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AH2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>18</v>
@@ -2784,16 +2780,16 @@
         <v>21</v>
       </c>
       <c r="AP2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="AT2" s="7" t="s">
         <v>1</v>
@@ -2811,19 +2807,19 @@
         <v>26</v>
       </c>
       <c r="AY2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BB2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BC2" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="BD2" s="7" t="s">
         <v>29</v>
@@ -2835,25 +2831,25 @@
         <v>157</v>
       </c>
       <c r="BG2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH2" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="BI2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="BJ2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BL2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BM2" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="BN2" s="7" t="s">
         <v>35</v>
@@ -2862,10 +2858,10 @@
         <v>14</v>
       </c>
       <c r="BP2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="BQ2" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="BR2" s="7" t="s">
         <v>37</v>
@@ -2877,37 +2873,37 @@
         <v>40</v>
       </c>
       <c r="BU2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV2" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="BV2" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="BW2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="BX2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BY2" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="BZ2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="CA2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CB2" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CC2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CD2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE2" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="CD2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="CE2" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="CF2" s="7" t="s">
         <v>45</v>
@@ -2916,13 +2912,13 @@
         <v>46</v>
       </c>
       <c r="CH2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="CI2" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="CK2" s="7" t="s">
         <v>14</v>
@@ -2931,28 +2927,28 @@
         <v>42</v>
       </c>
       <c r="CM2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="CO2" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="CN2" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="CO2" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="CP2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="CQ2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="CR2" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="CR2" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="CS2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="CT2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CU2" s="7" t="s">
         <v>3</v>
@@ -2961,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="CW2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CX2" s="7" t="s">
         <v>110</v>
@@ -2970,46 +2966,46 @@
         <v>32</v>
       </c>
       <c r="CZ2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="DA2" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="DA2" s="7" t="s">
+      <c r="DB2" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="DB2" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="DC2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="DD2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="DE2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF2" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="DE2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="DF2" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="DG2" s="7" t="s">
         <v>54</v>
       </c>
       <c r="DH2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="DI2" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="DI2" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="DJ2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="DK2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="DL2" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="DL2" s="7" t="s">
+      <c r="DM2" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="DM2" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="DN2" s="7" t="s">
         <v>58</v>
@@ -3021,19 +3017,19 @@
         <v>42</v>
       </c>
       <c r="DQ2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="DR2" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="DR2" s="7" t="s">
+      <c r="DS2" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="DS2" s="7" t="s">
+      <c r="DT2" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="DT2" s="7" t="s">
+      <c r="DU2" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="DU2" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="DV2" s="7" t="s">
         <v>40</v>
@@ -3042,16 +3038,16 @@
         <v>42</v>
       </c>
       <c r="DX2" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DY2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="DZ2" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="DZ2" s="7" t="s">
+      <c r="EA2" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="EA2" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="EB2" s="7" t="s">
         <v>64</v>
@@ -3066,19 +3062,19 @@
         <v>67</v>
       </c>
       <c r="EF2" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="EG2" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="EG2" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="EH2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="EI2" s="7" t="s">
         <v>229</v>
       </c>
       <c r="EJ2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="EK2" s="7" t="s">
         <v>14</v>
@@ -3093,10 +3089,10 @@
         <v>42</v>
       </c>
       <c r="EO2" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="EP2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="EQ2" s="7" t="s">
         <v>230</v>
@@ -3117,7 +3113,7 @@
         <v>233</v>
       </c>
       <c r="EW2" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="EX2" s="7" t="s">
         <v>42</v>
@@ -3138,7 +3134,7 @@
         <v>235</v>
       </c>
       <c r="FD2" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="FE2" s="7" t="s">
         <v>236</v>
@@ -3147,7 +3143,7 @@
         <v>79</v>
       </c>
       <c r="FG2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="FH2" s="7" t="s">
         <v>152</v>
@@ -3171,10 +3167,10 @@
         <v>239</v>
       </c>
       <c r="FO2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="FP2" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="FP2" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="FQ2" s="7" t="s">
         <v>14</v>
@@ -3213,7 +3209,7 @@
         <v>244</v>
       </c>
       <c r="GC2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="GD2" s="7" t="s">
         <v>110</v>
@@ -3231,10 +3227,10 @@
         <v>246</v>
       </c>
       <c r="GI2" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="GJ2" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="GK2" s="7" t="s">
         <v>247</v>
@@ -3327,10 +3323,10 @@
         <v>157</v>
       </c>
       <c r="HO2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="HP2" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="HQ2" s="7" t="s">
         <v>261</v>
@@ -3354,7 +3350,7 @@
         <v>263</v>
       </c>
       <c r="HX2" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="HY2" s="7" t="s">
         <v>42</v>
@@ -3372,7 +3368,7 @@
         <v>235</v>
       </c>
       <c r="ID2" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="IE2" s="7" t="s">
         <v>264</v>
@@ -3411,7 +3407,7 @@
         <v>113</v>
       </c>
       <c r="IQ2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="IR2" s="7" t="s">
         <v>270</v>
@@ -3441,7 +3437,7 @@
         <v>118</v>
       </c>
       <c r="JA2" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="JB2" s="7" t="s">
         <v>273</v>
@@ -3450,7 +3446,7 @@
         <v>274</v>
       </c>
       <c r="JD2" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="JE2" s="7" t="s">
         <v>275</v>
@@ -3543,10 +3539,10 @@
         <v>229</v>
       </c>
       <c r="KI2" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="KJ2" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="KK2" s="7" t="s">
         <v>135</v>
@@ -3555,10 +3551,10 @@
         <v>24</v>
       </c>
       <c r="KM2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="KN2" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="KN2" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="KO2" s="7" t="s">
         <v>14</v>
@@ -3573,7 +3569,7 @@
         <v>42</v>
       </c>
       <c r="KS2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="KT2" s="7" t="s">
         <v>288</v>
@@ -3606,7 +3602,7 @@
         <v>294</v>
       </c>
       <c r="LD2" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="LE2" s="7" t="s">
         <v>295</v>
@@ -3636,10 +3632,10 @@
         <v>121</v>
       </c>
       <c r="LN2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="LO2" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="LP2" s="7" t="s">
         <v>256</v>
@@ -3654,7 +3650,7 @@
         <v>297</v>
       </c>
       <c r="LT2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="LU2" s="7" t="s">
         <v>110</v>
@@ -3672,7 +3668,7 @@
         <v>266</v>
       </c>
       <c r="LZ2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="MA2" s="7" t="s">
         <v>298</v>
@@ -3687,7 +3683,7 @@
         <v>40</v>
       </c>
       <c r="ME2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="MF2" s="7" t="s">
         <v>299</v>
